--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1258145.898656829</v>
+        <v>1316537.482002176</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324958</v>
+        <v>278692.0725916862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6547303.046261294</v>
+        <v>6922151.423829047</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -671,7 +673,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>295.7372906054832</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>124.3658034024555</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -826,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>113.6538816517982</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.4293777628095</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,22 +898,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>325.5800738246913</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>321.2888640028173</v>
       </c>
     </row>
     <row r="6">
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>101.6378974498244</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.5640313201067</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>315.7090974304645</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>248.4931071670215</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>13.58463948630014</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>278.9374345281241</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>201.4510374461745</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314298</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800184</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>158.5878795129348</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.689874368395995</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,13 +1821,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>223.6316549675137</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>41.9406129737742</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2007,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>109.1426757626846</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>23.92593778768322</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2138,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>133.9986524434723</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775142</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2618,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791306184</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
-        <v>131.5141848153389</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>155.623074138944</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>101.2878188239681</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3746,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>208.6484078524352</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655135</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>187.4537730419678</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>85.55329631630721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.5896006717547</v>
+        <v>404.2032624633455</v>
       </c>
     </row>
     <row r="45">
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>103.8284742946039</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>260.4356504767644</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>846.680625966315</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>418.0989517035833</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>386.2295709184319</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>356.4952301171311</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>332.6682045667429</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>868.9397924108188</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>1294.102365436318</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1294.102365436318</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1294.102365436318</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.1951216346689</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C4" t="n">
-        <v>509.1951216346689</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>509.1951216346689</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1560.963708127407</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1560.963708127407</v>
       </c>
       <c r="U4" t="n">
-        <v>1540.988459530426</v>
+        <v>1560.963708127407</v>
       </c>
       <c r="V4" t="n">
-        <v>1254.032951400857</v>
+        <v>1274.008199997838</v>
       </c>
       <c r="W4" t="n">
-        <v>982.0065469871481</v>
+        <v>1001.981795584129</v>
       </c>
       <c r="X4" t="n">
-        <v>736.6147923205606</v>
+        <v>1001.981795584129</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.1951216346689</v>
+        <v>774.5621248982375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1267.176165140082</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>829.0336923235054</v>
       </c>
       <c r="D5" t="n">
-        <v>1291.790603831868</v>
+        <v>393.1239074979499</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>363.3895666966491</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726462</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726462</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>557.7649106726462</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717426</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.4652647208</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657694</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2033.112001068727</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1613.969537648038</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1289.435331584586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326467</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="K6" t="n">
-        <v>480.0602407069692</v>
+        <v>548.8324253914311</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0602407069692</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0602407069692</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="N6" t="n">
-        <v>480.0602407069692</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>868.2688864592589</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>702.3908936607816</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>532.6328899115188</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>355.925835873275</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947714</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1143.991608255757</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2005.919660639183</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473857</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179229</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1992.41615017707</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1705.4606420475</v>
       </c>
       <c r="W7" t="n">
-        <v>1418.750429333523</v>
+        <v>1705.4606420475</v>
       </c>
       <c r="X7" t="n">
-        <v>1418.750429333523</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.680625966315</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5785571901424</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>780.709176404991</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>559.7218594302572</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>559.7218594302572</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1537.942061378414</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1250.986553248845</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>978.9601488351361</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>978.9601488351361</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>751.5404781492443</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1442.805921820814</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1004.663449004237</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>568.7536641786819</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>365.2677677684046</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162089</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>76.13761321162089</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1018.340576705429</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1018.340576705429</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1960.543540199238</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O11" t="n">
-        <v>2902.746503693046</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3637.726595827987</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3723.228786764881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3464.006484081898</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3101.389534015724</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.534079426758</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1869.105492305722</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162089</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>400.6959381778332</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162089</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1628.307773577638</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1628.307773577638</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2262.917935035996</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2262.917935035996</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035996</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869393</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.228786764881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.16155963792</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954936</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888763</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299796</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879107</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2054.607344062546</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2012863720785</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2012863720785</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>802.4814301168919</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.293599513877</v>
+        <v>3237.000859932815</v>
       </c>
       <c r="C16" t="n">
-        <v>842.7318879971018</v>
+        <v>3237.000859932815</v>
       </c>
       <c r="D16" t="n">
-        <v>676.8538951986245</v>
+        <v>3237.000859932815</v>
       </c>
       <c r="E16" t="n">
-        <v>507.0958914493617</v>
+        <v>3067.242856183552</v>
       </c>
       <c r="F16" t="n">
-        <v>330.3888374111179</v>
+        <v>2890.535802145308</v>
       </c>
       <c r="G16" t="n">
-        <v>164.7975624369456</v>
+        <v>2724.944527171136</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369456</v>
+        <v>2585.042352861511</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>2496.382403636186</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>4460.612816547559</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>4173.65730841799</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.923643585343</v>
+        <v>3901.630904004281</v>
       </c>
       <c r="X16" t="n">
-        <v>1434.531888918756</v>
+        <v>3656.239149337694</v>
       </c>
       <c r="Y16" t="n">
-        <v>1207.112218232864</v>
+        <v>3428.819478651802</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,37 +5521,37 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D19" t="n">
-        <v>617.7751448769883</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439735</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057297</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5713,10 +5715,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5786,16 +5788,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="26">
@@ -6212,55 +6214,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
@@ -6269,7 +6271,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6519,16 +6521,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G30" t="n">
         <v>143.9964924545671</v>
@@ -6540,25 +6542,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>449.602989562749</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K30" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6610,16 +6612,16 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K31" t="n">
         <v>463.598980006605</v>
@@ -6643,22 +6645,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2159.539202830818</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1872.583694701248</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1600.55729028754</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
         <v>1600.55729028754</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>475.2748675296854</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L32" t="n">
-        <v>475.2748675296854</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1680.929463568621</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M35" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7014,28 +7016,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L36" t="n">
-        <v>751.6989919312866</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1246.54233171619</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2595.191700773933</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2349.312254352388</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1381.362214048096</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1990.211099348994</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1552.068626532417</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1116.158841706861</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.1376132116209</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.1376132116209</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1206.821882881776</v>
+        <v>1286.300469346937</v>
       </c>
       <c r="L41" t="n">
-        <v>1206.821882881776</v>
+        <v>1286.300469346937</v>
       </c>
       <c r="M41" t="n">
-        <v>2149.024846375585</v>
+        <v>2443.348304557488</v>
       </c>
       <c r="N41" t="n">
-        <v>3091.227809869394</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="O41" t="n">
-        <v>3091.227809869394</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869394</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827988</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637921</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954937</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3243.939256954937</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3243.939256954937</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2824.796793534248</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2416.510669833901</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>76.1376132116209</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>76.1376132116209</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>756.8711332819983</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1699.074096775807</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1739.37737469043</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1739.37737469043</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1739.37737469043</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1739.37737469043</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1013.051121315125</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>840.48940979835</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>674.6114169998727</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>504.85341325061</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>328.1463592123662</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>162.5550842381938</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.2614947007</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.869740034112</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.869740034112</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1383.964615695458</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>945.8221428788813</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>509.9123580533258</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>76.1376132116209</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>76.1376132116209</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.1376132116209</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.1376132116209</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9214781414416</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>980.2717700996195</v>
+        <v>1286.300469346937</v>
       </c>
       <c r="L44" t="n">
-        <v>1922.474733593428</v>
+        <v>1286.300469346937</v>
       </c>
       <c r="M44" t="n">
-        <v>1922.474733593428</v>
+        <v>2443.348304557488</v>
       </c>
       <c r="N44" t="n">
-        <v>2864.677697087237</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="O44" t="n">
-        <v>3806.880660581045</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>3806.880660581045</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>3806.880660581045</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637921</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954937</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.322306888764</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>2476.466852299797</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2057.324388879108</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>1810.264186180366</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.1376132116209</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.6336502885522</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C46" t="n">
-        <v>754.0719387717771</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D46" t="n">
-        <v>588.1939459732998</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E46" t="n">
-        <v>418.435942224037</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7288881857932</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G46" t="n">
-        <v>76.1376132116209</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H46" t="n">
-        <v>76.1376132116209</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I46" t="n">
-        <v>76.1376132116209</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763108</v>
+        <v>2582.962088800873</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372008</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139969</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.414292320882</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478526</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704309</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.84923867465</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>5091.624192244354</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>4932.382823542351</v>
       </c>
       <c r="T46" t="n">
-        <v>2428.678607650191</v>
+        <v>4686.503377120806</v>
       </c>
       <c r="U46" t="n">
-        <v>2150.245606903296</v>
+        <v>4686.503377120806</v>
       </c>
       <c r="V46" t="n">
-        <v>1863.290098773727</v>
+        <v>4423.437063507913</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.263694360019</v>
+        <v>4151.410659094205</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.871939693431</v>
+        <v>3906.018904427618</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.452269007539</v>
+        <v>3678.599233741726</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611234</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>503.4343826282363</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>317.1830304671648</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8459,19 +8461,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>951.720165145261</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452613</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>742.4041334696376</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022035</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9003,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O15" t="n">
-        <v>707.3536805503167</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1083.895244158402</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,10 +9652,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>324.5237132641533</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160665</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10370,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10662,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>405.8439312515743</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>388.0185734358511</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.4541234517549</v>
+        <v>756.3484258820602</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452613</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452615</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>951.7201651452611</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>40.71038173194256</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.48875245436436</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820602</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452613</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452613</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>227.9859599471133</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5.631333357557736</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.5133880949471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>52.01701577191204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>227.3655273957972</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>58.91774794908547</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>141.6500182959534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
-        <v>144.1344859240868</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>15.21302026266329</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>56.36113619101518</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.1718905122113</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>220.7885895408526</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.446659489829472</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>52.94985625022201</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.6136617915884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.65030257150949</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>558397.1266586974</v>
+        <v>575306.8898897312</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>558397.1266586974</v>
+        <v>578351.5299509652</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491613.1246798085</v>
+        <v>608025.690368165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491613.1246798085</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608025.6903681649</v>
+        <v>608025.690368165</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491613.1246798085</v>
+        <v>608025.690368165</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491613.1246798086</v>
+        <v>608025.690368165</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>340788.3677312201</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="F2" t="n">
-        <v>340788.36773122</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="G2" t="n">
-        <v>421486.0673098818</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
@@ -26341,19 +26343,19 @@
         <v>421486.0673098819</v>
       </c>
       <c r="L2" t="n">
+        <v>421486.0673098818</v>
+      </c>
+      <c r="M2" t="n">
+        <v>421486.0673098818</v>
+      </c>
+      <c r="N2" t="n">
+        <v>421486.0673098817</v>
+      </c>
+      <c r="O2" t="n">
         <v>421486.0673098819</v>
       </c>
-      <c r="M2" t="n">
-        <v>421486.0673098819</v>
-      </c>
-      <c r="N2" t="n">
-        <v>421486.0673098819</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340788.3677312201</v>
-      </c>
       <c r="P2" t="n">
-        <v>340788.3677312201</v>
+        <v>421486.067309882</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501638</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998257</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.808606369</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.3017266223</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909369</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>87578.89003397719</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>87578.89003397719</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26456,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>87578.89003397719</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>87578.89003397721</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26496,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9076.501082825424</v>
+        <v>9076.501082825416</v>
       </c>
       <c r="C6" t="n">
-        <v>151267.8017425354</v>
+        <v>102409.3744183709</v>
       </c>
       <c r="D6" t="n">
-        <v>151267.8017425354</v>
+        <v>160661.7535272588</v>
       </c>
       <c r="E6" t="n">
-        <v>37867.59673430704</v>
+        <v>53095.40165457665</v>
       </c>
       <c r="F6" t="n">
-        <v>195344.891656411</v>
+        <v>235450.5108756266</v>
       </c>
       <c r="G6" t="n">
-        <v>145950.7022692573</v>
+        <v>235450.5108756265</v>
       </c>
       <c r="H6" t="n">
-        <v>235450.5108756265</v>
+        <v>235450.5108756266</v>
       </c>
       <c r="I6" t="n">
-        <v>235450.5108756265</v>
+        <v>235450.5108756264</v>
       </c>
       <c r="J6" t="n">
         <v>124436.0455306363</v>
       </c>
       <c r="K6" t="n">
-        <v>235450.5108756265</v>
+        <v>182404.656236854</v>
       </c>
       <c r="L6" t="n">
-        <v>235450.5108756265</v>
+        <v>226058.2091490041</v>
       </c>
       <c r="M6" t="n">
-        <v>104014.2637182069</v>
+        <v>83250.33993763867</v>
       </c>
       <c r="N6" t="n">
-        <v>235450.5108756265</v>
+        <v>235450.5108756263</v>
       </c>
       <c r="O6" t="n">
-        <v>195344.8916564111</v>
+        <v>235450.5108756266</v>
       </c>
       <c r="P6" t="n">
-        <v>195344.8916564111</v>
+        <v>235450.5108756266</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452613</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939274</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394841</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483599</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939274</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251566</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394841</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>101.6465624574855</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>290.5852353840269</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>43.99507336318511</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>142.2192929766162</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>105.9706131526086</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>82.91439846052577</v>
       </c>
     </row>
     <row r="6">
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>174.0107732896013</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.58144265892605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>113.7278999628233</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>152.3137928760555</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>150.6345733841924</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>5.148518520149764</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>288.796249040161</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611234</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>503.4343826282363</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>317.1830304671648</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.720165145261</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>951.720165145261</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452613</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>742.4041334696376</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022035</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>926.4397398113938</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="O15" t="n">
-        <v>707.3536805503167</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743907648</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080414</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1083.895244158402</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>779.6755805253165</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.305540278396</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820595</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,13 +36369,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>324.5237132641533</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160665</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>405.8439312515743</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,16 +37545,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889939</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>388.0185734358511</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>702.4541234517549</v>
+        <v>756.3484258820602</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>951.7201651452613</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>951.7201651452615</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>951.7201651452611</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>40.71038173194256</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.48875245436436</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820602</v>
       </c>
       <c r="L44" t="n">
-        <v>951.7201651452613</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>951.7201651452613</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908148</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080414</v>
@@ -38187,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1316537.482002176</v>
+        <v>1316012.299633144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916862</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6922151.423829047</v>
+        <v>6922151.423829049</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>295.7372906054832</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>5.981286942221363</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>113.6538816517982</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>48.57376592661059</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>321.2888640028173</v>
+        <v>391.4942353132304</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>34.06158462964232</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>101.6378974498244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1147,10 +1147,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>214.1242682761302</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>248.4931071670215</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>20.28369113775165</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1350,7 +1350,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>278.9374345281241</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869773029</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314298</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800184</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>158.5878795129348</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>4.611010594206484e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225256</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800142</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556931</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225713</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>223.6316549675137</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1846,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>101.1195220207887</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394304</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>23.92593778768322</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2140,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9986524434723</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>20.28369113775142</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244305</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735227057</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573292</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800564</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791306184</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317971</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016072</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704924</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>168.06042371177</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978612</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244305</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225976</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573292</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394256</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695713</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790327</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>155.623074138944</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.2878188239681</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>45.76594660771036</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800618</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655135</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.4537730419678</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307153</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>205.2237322525161</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884138</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633455</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225571</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V46" t="n">
-        <v>260.4356504767644</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>1245.49437657324</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>1211.392307797067</v>
       </c>
       <c r="D2" t="n">
-        <v>386.2295709184319</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="E2" t="n">
-        <v>356.4952301171311</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>332.6682045667429</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1691.141726098376</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1676.03966671809</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1671.793947058148</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.963708127407</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.963708127407</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.963708127407</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1274.008199997838</v>
+        <v>1123.806572885099</v>
       </c>
       <c r="W4" t="n">
-        <v>1001.981795584129</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="X4" t="n">
-        <v>1001.981795584129</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.5621248982375</v>
+        <v>851.7801684713901</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.176165140082</v>
+        <v>574.4223959157541</v>
       </c>
       <c r="C5" t="n">
-        <v>829.0336923235054</v>
+        <v>540.3203271395814</v>
       </c>
       <c r="D5" t="n">
-        <v>393.1239074979499</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>363.3895666966491</v>
+        <v>74.67620151272521</v>
       </c>
       <c r="F5" t="n">
-        <v>339.5625411462609</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462609</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947714</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>485.6870740423951</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726462</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726462</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726462</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717426</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762199</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.4652647208</v>
+        <v>2352.465264720794</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657694</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657694</v>
+        <v>2437.967455657687</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657694</v>
+        <v>2178.745152974704</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.967455657694</v>
+        <v>1816.128202908531</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.112001068727</v>
+        <v>1411.272748319564</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.969537648038</v>
+        <v>992.1302848988745</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.435331584586</v>
+        <v>596.6815623602579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326467</v>
+        <v>92.16803877326454</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947714</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947714</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>548.8324253914311</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1040.830597976034</v>
+        <v>593.0357356940349</v>
       </c>
       <c r="C7" t="n">
-        <v>868.2688864592589</v>
+        <v>420.4740241772598</v>
       </c>
       <c r="D7" t="n">
-        <v>702.3908936607816</v>
+        <v>254.5960313787825</v>
       </c>
       <c r="E7" t="n">
-        <v>532.6328899115188</v>
+        <v>84.83802762951976</v>
       </c>
       <c r="F7" t="n">
-        <v>355.925835873275</v>
+        <v>84.83802762951976</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991026</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947714</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947701</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255757</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413401</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639183</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473857</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179229</v>
+        <v>2500.201508179222</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2340.960139477219</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055681</v>
+        <v>2095.080693055674</v>
       </c>
       <c r="U7" t="n">
-        <v>1992.41615017707</v>
+        <v>1816.647692308779</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.4606420475</v>
+        <v>1529.69218417921</v>
       </c>
       <c r="W7" t="n">
-        <v>1705.4606420475</v>
+        <v>1257.665779765501</v>
       </c>
       <c r="X7" t="n">
-        <v>1460.068887380913</v>
+        <v>1012.274025098914</v>
       </c>
       <c r="Y7" t="n">
-        <v>1232.649216695021</v>
+        <v>784.8543544130221</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.8788077480212</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>829.7767389718487</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>293.9321711247355</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,19 +4804,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1713.566561313561</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.464501933276</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1290.178378232929</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>377.9595414948409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>992.5572028308845</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C10" t="n">
-        <v>819.9954913141095</v>
+        <v>814.7949675563824</v>
       </c>
       <c r="D10" t="n">
-        <v>654.1174985156322</v>
+        <v>648.9169747579051</v>
       </c>
       <c r="E10" t="n">
-        <v>484.3594947663694</v>
+        <v>479.1589710086424</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>302.4519169703985</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4998,16 +4998,16 @@
         <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1929.213651316059</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1657.187246902351</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>1411.795492235764</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>1184.375821549872</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5029,64 +5029,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C12" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D12" t="n">
         <v>406.885835245268</v>
@@ -5111,16 +5111,16 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
         <v>1107.588885023173</v>
@@ -5144,16 +5144,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S12" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T12" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V12" t="n">
         <v>1196.412455590541</v>
@@ -5162,10 +5162,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y12" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.728611060351</v>
+        <v>952.7568773477155</v>
       </c>
       <c r="C13" t="n">
-        <v>863.1668995435758</v>
+        <v>780.1951658309405</v>
       </c>
       <c r="D13" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324632</v>
       </c>
       <c r="E13" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692832005</v>
       </c>
       <c r="F13" t="n">
-        <v>356.5120644702766</v>
+        <v>267.8521152449567</v>
       </c>
       <c r="G13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707843</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707843</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
         <v>881.8088617745661</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.6812811309</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709355</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.36883396246</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.41332583289</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419182</v>
       </c>
       <c r="X13" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.995166752595</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066703</v>
       </c>
     </row>
     <row r="14">
@@ -5266,46 +5266,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
         <v>406.885835245268</v>
@@ -5348,49 +5348,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865837</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>426.855364952796</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
         <v>1196.412455590541</v>
@@ -5399,10 +5399,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3237.000859932815</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>3237.000859932815</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>3237.000859932815</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>3067.242856183552</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>2890.535802145308</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>2724.944527171136</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>2585.042352861511</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636186</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>4460.612816547559</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>4173.65730841799</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>3901.630904004281</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>3656.239149337694</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>3428.819478651802</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5503,37 +5503,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2009.667423945775</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5557,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.560997133398</v>
+        <v>970.9960463903903</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005135</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.652494875565</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461857</v>
       </c>
       <c r="X19" t="n">
-        <v>1430.799286538277</v>
+        <v>1390.234335795269</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109378</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,13 +5758,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5788,16 +5788,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2517.772683270128</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2239.339682523233</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1952.384174393664</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477103</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309354</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324582</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831955</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6384,13 +6384,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354696</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6405,31 +6405,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173591</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173591</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130893</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709348</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962454</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419176</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066697</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
         <v>1654.847790009656</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004225</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,43 +6472,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423624</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423624</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.07928799393</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.389162827327</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785921</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.042013538978</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722815</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595853</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.10060991287</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846696</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.62820525773</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837041</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136694</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J30" t="n">
         <v>452.8828383974495</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477102</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309353</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324581</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831954</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066052</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745664</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130893</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.801834709348</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962454</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419176</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066697</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,25 +6943,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1246.54233171619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2595.191700773933</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2349.312254352388</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2070.879253605493</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1783.923745475924</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1511.897341062215</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7177,13 +7177,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7250,10 +7250,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7405,7 +7405,7 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707797</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1286.300469346937</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>1286.300469346937</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2443.348304557488</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993935</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
         <v>406.885835245268</v>
@@ -7493,37 +7493,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7532,10 +7532,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>849.849733110012</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>677.2880215932369</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>677.2880215932369</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>507.530017843974</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>330.8229638057301</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057301</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707797</v>
@@ -7590,31 +7590,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U43" t="n">
-        <v>2313.799635050031</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V43" t="n">
-        <v>2026.844126920461</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W43" t="n">
-        <v>1754.817722506753</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X43" t="n">
-        <v>1509.425967840165</v>
+        <v>1269.088022514891</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.006297154273</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
         <v>793.2056155771595</v>
@@ -7642,7 +7642,7 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707797</v>
@@ -7651,49 +7651,49 @@
         <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1286.300469346937</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1286.300469346937</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="M44" t="n">
-        <v>2443.348304557488</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N44" t="n">
-        <v>3569.079287993935</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
         <v>406.885835245268</v>
@@ -7730,37 +7730,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
         <v>1196.412455590541</v>
@@ -7769,10 +7769,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3486.780615022739</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C46" t="n">
-        <v>3314.218903505964</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D46" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E46" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831961</v>
       </c>
       <c r="F46" t="n">
-        <v>2801.87585291998</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G46" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>2582.962088800873</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>2857.720543372008</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L46" t="n">
-        <v>3275.930425139969</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M46" t="n">
-        <v>3735.414292320882</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>4177.673095478526</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>4597.342344704309</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>4944.84923867465</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
-        <v>5113.042013538982</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>5091.624192244354</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>4932.382823542351</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T46" t="n">
-        <v>4686.503377120806</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U46" t="n">
-        <v>4686.503377120806</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V46" t="n">
-        <v>4423.437063507913</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W46" t="n">
-        <v>4151.410659094205</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X46" t="n">
-        <v>3906.018904427618</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>3678.599233741726</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>223.4729892007681</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611234</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684642</v>
+        <v>72.80589558610927</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>503.4343826282363</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684642</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671648</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238343</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,13 +8698,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525956</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1083.895244158402</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9184,7 +9184,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9406,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1082.305540278396</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>832.9621348837854</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352419</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352428</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10591,10 +10591,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>405.8439312515743</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10825,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>903.3699580700795</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820602</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820602</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>92.22506899525956</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.631333357557736</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627307</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.01701577191204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>69.71657238081866</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>141.6500182959534</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627126</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627234</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>15.21302026266329</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>56.36113619101518</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>197.1718905122113</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.446659489829472</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>37.71410486740564</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>23.65030257150949</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>575306.8898897312</v>
+        <v>575306.8898897311</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608025.690368165</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608025.690368165</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608025.690368165</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608025.690368165</v>
+        <v>608025.6903681654</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608025.690368165</v>
+        <v>608025.6903681649</v>
       </c>
     </row>
     <row r="16">
@@ -26316,40 +26316,40 @@
         <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="D2" t="n">
         <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="F2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="G2" t="n">
         <v>421486.0673098818</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>421486.0673098819</v>
-      </c>
-      <c r="G2" t="n">
-        <v>421486.0673098819</v>
-      </c>
-      <c r="H2" t="n">
-        <v>421486.067309882</v>
       </c>
       <c r="I2" t="n">
         <v>421486.0673098819</v>
       </c>
       <c r="J2" t="n">
+        <v>421486.0673098821</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421486.067309882</v>
+      </c>
+      <c r="L2" t="n">
         <v>421486.0673098819</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>421486.0673098819</v>
       </c>
-      <c r="L2" t="n">
-        <v>421486.0673098818</v>
-      </c>
-      <c r="M2" t="n">
-        <v>421486.0673098818</v>
-      </c>
       <c r="N2" t="n">
-        <v>421486.0673098817</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
         <v>421486.0673098819</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501638</v>
+        <v>66587.76789501586</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998257</v>
+        <v>11527.59554998306</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210498</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.85463877201</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.3017266223</v>
+        <v>9392.301726622727</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379878</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.762949511582091e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>187964.4997909369</v>
+        <v>187964.4997909371</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26429,7 +26429,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>108317.3178284628</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
         <v>108317.3178284629</v>
@@ -26441,10 +26441,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284631</v>
       </c>
       <c r="K4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284631</v>
       </c>
       <c r="L4" t="n">
         <v>108317.3178284629</v>
@@ -26456,10 +26456,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="P4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.3178284628</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26493,7 +26493,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579247</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9076.501082825416</v>
+        <v>9076.501082825424</v>
       </c>
       <c r="C6" t="n">
-        <v>102409.3744183709</v>
+        <v>102409.3744183712</v>
       </c>
       <c r="D6" t="n">
-        <v>160661.7535272588</v>
+        <v>160661.7535272583</v>
       </c>
       <c r="E6" t="n">
-        <v>53095.40165457665</v>
+        <v>53072.17731519398</v>
       </c>
       <c r="F6" t="n">
-        <v>235450.5108756266</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="G6" t="n">
-        <v>235450.5108756265</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="H6" t="n">
-        <v>235450.5108756266</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="I6" t="n">
-        <v>235450.5108756264</v>
+        <v>235427.2865362438</v>
       </c>
       <c r="J6" t="n">
-        <v>124436.0455306363</v>
+        <v>124412.8211912536</v>
       </c>
       <c r="K6" t="n">
-        <v>182404.656236854</v>
+        <v>182381.4318974718</v>
       </c>
       <c r="L6" t="n">
-        <v>226058.2091490041</v>
+        <v>226034.9848096211</v>
       </c>
       <c r="M6" t="n">
-        <v>83250.33993763867</v>
+        <v>83227.115598256</v>
       </c>
       <c r="N6" t="n">
-        <v>235450.5108756263</v>
+        <v>235427.2865362438</v>
       </c>
       <c r="O6" t="n">
-        <v>235450.5108756266</v>
+        <v>235427.2865362439</v>
       </c>
       <c r="P6" t="n">
-        <v>235450.5108756266</v>
+        <v>235427.2865362441</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26792,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26816,7 +26816,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
       <c r="L4" t="n">
         <v>1278.260503384745</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.453686889477613e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483599</v>
+        <v>206.1089748483583</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939274</v>
+        <v>37.11037423939433</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483572</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939538</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483599</v>
+        <v>206.1089748483583</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939274</v>
+        <v>37.11037423939433</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.6465624574855</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27441,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>394.8256131008557</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>43.99507336318511</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>235.5121871216633</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.91439846052577</v>
+        <v>12.70902715011266</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>129.8737775947883</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>174.0107732896013</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>183.2595847868386</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>152.3137928760555</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.148518520149764</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-4.611010594206484e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28380,10 +28380,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.027586607836927e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-4.063161046444251e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28778,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-4.745772102246885e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-7.742005345385692e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29432,31 +29432,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -29477,31 +29477,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.124055625590198e-11</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3.151399141643197e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.126308242074346e-13</v>
       </c>
     </row>
     <row r="32">
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-3.069544618483633e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30662,31 +30662,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.172530762138697e-12</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,10 +30696,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-2.926137493228327e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.126308242074346e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>262.4693064538401</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>223.4729892007681</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611234</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684642</v>
+        <v>72.80589558610927</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>503.4343826282363</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684642</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671648</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238343</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.488385918383</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>301.546314668241</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35649,16 +35649,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525956</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743907648</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080414</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1083.895244158402</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35904,7 +35904,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -36126,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1082.305540278396</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>832.9621348837854</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908078</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,19 +36761,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821653</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352419</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352428</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908077</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37311,10 +37311,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>405.8439312515743</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37545,16 +37545,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>903.3699580700795</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820602</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37958,7 +37958,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821525</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>756.3484258820602</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>92.22506899525956</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908148</v>
+        <v>87.45422743908054</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080414</v>
@@ -38189,13 +38189,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
